--- a/biology/Botanique/Gène_R/Gène_R.xlsx
+++ b/biology/Botanique/Gène_R/Gène_R.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_R</t>
+          <t>Gène_R</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gènes-R, ou gènes de résistance, sont des gènes présents dans le génome des plantes. Ils induisent chez celles-ci la résistance aux maladies contre les agents pathogènes en produisant des récepteurs, ou protéines-R capable de reconnaître les éliciteurs produits par les gènes d'avirulence des agents pathogènes.
-La principale classe de gènes-R comprend un domaine de liaison de nucléotides (NB, anglais « nucleotide-binding domain ») et un domaine de répétition riche en leucines (LRR) et est souvent désignée « gènes-R NB-LRR » ou « NLRs »[1].
+La principale classe de gènes-R comprend un domaine de liaison de nucléotides (NB, anglais « nucleotide-binding domain ») et un domaine de répétition riche en leucines (LRR) et est souvent désignée « gènes-R NB-LRR » ou « NLRs ».
 En règle générale, le domaine NB lie ATP/ADP ou GTP/GDP
 Le domaine LRR est souvent impliqué dans les interactions protéine-protéine ainsi que dans la liaison du ligand.
-Les gènes-R NB-LRR peuvent être subdivisés en récepteurs à interleukine de type Toll (TIR-NB-LRR) et récepteurs à spirales (coiled coil) (CC-NB-LRR)[2].
+Les gènes-R NB-LRR peuvent être subdivisés en récepteurs à interleukine de type Toll (TIR-NB-LRR) et récepteurs à spirales (coiled coil) (CC-NB-LRR).
 La résistance peut être véhiculée par un certain nombre de mécanismes, dont les suivants :
 la protéine-R interagit directement avec le produit d'un gène Avr (gène d'avirulence) de l'agent pathogène (cf. Relation gène pour gène) ;
 la protéine-R protège une autre protéine qui détecte la dégradation par un gène Avr (cf. Hypothèse de garde).
